--- a/Adwords/关键字Laser Stage日文.xlsx
+++ b/Adwords/关键字Laser Stage日文.xlsx
@@ -11,13 +11,14 @@
     <sheet name="关键字 排序 有重复" sheetId="1" r:id="rId2"/>
     <sheet name="关键字 去掉重复" sheetId="2" r:id="rId3"/>
     <sheet name="否定" sheetId="3" r:id="rId4"/>
+    <sheet name="2015.8.3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>激光舞台灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +80,6 @@
     <t>レーザー 演出</t>
   </si>
   <si>
-    <t>レーザーステージライト</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小型 レーザーステージライト</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +89,46 @@
   </si>
   <si>
     <t>ディスコライト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字（按相关性排序）</t>
+  </si>
+  <si>
+    <t>平均每月搜索量 </t>
+  </si>
+  <si>
+    <t>竞争程度 </t>
+  </si>
+  <si>
+    <t>建议的出价 </t>
+  </si>
+  <si>
+    <t>广告展示次数份额 </t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>￥ 1.15</t>
+  </si>
+  <si>
+    <t>レーザーポインター</t>
+  </si>
+  <si>
+    <t>￥ 1.36</t>
+  </si>
+  <si>
+    <t>&lt; 1%</t>
+  </si>
+  <si>
+    <t>添加到草案</t>
+  </si>
+  <si>
+    <t>帐户</t>
+  </si>
+  <si>
+    <t>レーザーステージライト</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +151,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -131,12 +215,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF3F3F3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF3F3F3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,7 +635,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -471,7 +662,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -529,7 +720,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,7 +740,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -557,7 +748,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -601,4 +792,117 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>720</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>22200</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>